--- a/Cleaned_Weather_hourly.xlsx
+++ b/Cleaned_Weather_hourly.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F817"/>
+  <dimension ref="A1:F841"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13904,16 +13904,16 @@
         <v>3</v>
       </c>
       <c r="C677">
-        <v>4.74</v>
+        <v>4.04</v>
       </c>
       <c r="D677">
         <v>0</v>
       </c>
       <c r="E677">
-        <v>19.01</v>
+        <v>21.75</v>
       </c>
       <c r="F677">
-        <v>245.38</v>
+        <v>241.31</v>
       </c>
     </row>
     <row r="678">
@@ -13924,16 +13924,16 @@
         <v>4</v>
       </c>
       <c r="C678">
-        <v>4.03</v>
+        <v>3.82</v>
       </c>
       <c r="D678">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E678">
-        <v>18.36</v>
+        <v>20.38</v>
       </c>
       <c r="F678">
-        <v>241.93</v>
+        <v>234.34</v>
       </c>
     </row>
     <row r="679">
@@ -13944,16 +13944,16 @@
         <v>5</v>
       </c>
       <c r="C679">
-        <v>3.96</v>
+        <v>3.44</v>
       </c>
       <c r="D679">
         <v>0</v>
       </c>
       <c r="E679">
-        <v>18.17</v>
+        <v>19.13</v>
       </c>
       <c r="F679">
-        <v>236.31</v>
+        <v>228.81</v>
       </c>
     </row>
     <row r="680">
@@ -13964,16 +13964,16 @@
         <v>6</v>
       </c>
       <c r="C680">
-        <v>4.03</v>
+        <v>3.63</v>
       </c>
       <c r="D680">
         <v>0</v>
       </c>
       <c r="E680">
-        <v>17.1</v>
+        <v>15.28</v>
       </c>
       <c r="F680">
-        <v>229.27</v>
+        <v>214.44</v>
       </c>
     </row>
     <row r="681">
@@ -13984,16 +13984,16 @@
         <v>7</v>
       </c>
       <c r="C681">
-        <v>4.36</v>
+        <v>4.06</v>
       </c>
       <c r="D681">
         <v>0</v>
       </c>
       <c r="E681">
-        <v>16.87</v>
+        <v>15.83</v>
       </c>
       <c r="F681">
-        <v>213.69</v>
+        <v>197.2</v>
       </c>
     </row>
     <row r="682">
@@ -14004,16 +14004,16 @@
         <v>8</v>
       </c>
       <c r="C682">
-        <v>4.69</v>
+        <v>4.8</v>
       </c>
       <c r="D682">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E682">
-        <v>18.86</v>
+        <v>20.52</v>
       </c>
       <c r="F682">
-        <v>193.24</v>
+        <v>201.61</v>
       </c>
     </row>
     <row r="683">
@@ -14024,16 +14024,16 @@
         <v>9</v>
       </c>
       <c r="C683">
-        <v>5.39</v>
+        <v>5.71</v>
       </c>
       <c r="D683">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E683">
-        <v>20.62</v>
+        <v>25.96</v>
       </c>
       <c r="F683">
-        <v>192.09</v>
+        <v>199.44</v>
       </c>
     </row>
     <row r="684">
@@ -14044,16 +14044,16 @@
         <v>10</v>
       </c>
       <c r="C684">
-        <v>5.44</v>
+        <v>7.27</v>
       </c>
       <c r="D684">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="E684">
-        <v>24.54</v>
+        <v>29.64</v>
       </c>
       <c r="F684">
-        <v>194.44</v>
+        <v>204.39</v>
       </c>
     </row>
     <row r="685">
@@ -14064,16 +14064,16 @@
         <v>11</v>
       </c>
       <c r="C685">
-        <v>6.77</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="D685">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="E685">
-        <v>24.16</v>
+        <v>31.94</v>
       </c>
       <c r="F685">
-        <v>204.66</v>
+        <v>219.97</v>
       </c>
     </row>
     <row r="686">
@@ -14084,16 +14084,16 @@
         <v>12</v>
       </c>
       <c r="C686">
-        <v>8.390000000000001</v>
+        <v>9.07</v>
       </c>
       <c r="D686">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E686">
-        <v>22.96</v>
+        <v>33.27</v>
       </c>
       <c r="F686">
-        <v>221.19</v>
+        <v>215.75</v>
       </c>
     </row>
     <row r="687">
@@ -14104,16 +14104,16 @@
         <v>13</v>
       </c>
       <c r="C687">
-        <v>9.710000000000001</v>
+        <v>10.32</v>
       </c>
       <c r="D687">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="E687">
-        <v>21.38</v>
+        <v>36.37</v>
       </c>
       <c r="F687">
-        <v>225</v>
+        <v>211.64</v>
       </c>
     </row>
     <row r="688">
@@ -14144,16 +14144,16 @@
         <v>15</v>
       </c>
       <c r="C689">
-        <v>11.98</v>
+        <v>12.54</v>
       </c>
       <c r="D689">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E689">
-        <v>24.19</v>
+        <v>33.61</v>
       </c>
       <c r="F689">
-        <v>216.53</v>
+        <v>224.13</v>
       </c>
     </row>
     <row r="690">
@@ -14164,16 +14164,16 @@
         <v>16</v>
       </c>
       <c r="C690">
-        <v>11.62</v>
+        <v>12.61</v>
       </c>
       <c r="D690">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="E690">
-        <v>25.28</v>
+        <v>35.49</v>
       </c>
       <c r="F690">
-        <v>208.02</v>
+        <v>220.48</v>
       </c>
     </row>
     <row r="691">
@@ -14184,16 +14184,16 @@
         <v>17</v>
       </c>
       <c r="C691">
-        <v>11.56</v>
+        <v>12.4</v>
       </c>
       <c r="D691">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E691">
-        <v>26.09</v>
+        <v>34.95</v>
       </c>
       <c r="F691">
-        <v>207.98</v>
+        <v>221.24</v>
       </c>
     </row>
     <row r="692">
@@ -14204,16 +14204,16 @@
         <v>18</v>
       </c>
       <c r="C692">
-        <v>12.12</v>
+        <v>12.43</v>
       </c>
       <c r="D692">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="E692">
-        <v>32.33</v>
+        <v>35.9</v>
       </c>
       <c r="F692">
-        <v>217.76</v>
+        <v>223.78</v>
       </c>
     </row>
     <row r="693">
@@ -14224,16 +14224,16 @@
         <v>19</v>
       </c>
       <c r="C693">
-        <v>12.32</v>
+        <v>12.4</v>
       </c>
       <c r="D693">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="E693">
-        <v>35.13</v>
+        <v>36.41</v>
       </c>
       <c r="F693">
-        <v>224.17</v>
+        <v>223.8</v>
       </c>
     </row>
     <row r="694">
@@ -14244,16 +14244,16 @@
         <v>20</v>
       </c>
       <c r="C694">
-        <v>11.78</v>
+        <v>12.21</v>
       </c>
       <c r="D694">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E694">
-        <v>27.46</v>
+        <v>34.62</v>
       </c>
       <c r="F694">
-        <v>235.68</v>
+        <v>224.16</v>
       </c>
     </row>
     <row r="695">
@@ -14264,16 +14264,16 @@
         <v>21</v>
       </c>
       <c r="C695">
-        <v>11.57</v>
+        <v>11.6</v>
       </c>
       <c r="D695">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="E695">
-        <v>25.46</v>
+        <v>30.95</v>
       </c>
       <c r="F695">
-        <v>236.53</v>
+        <v>240.75</v>
       </c>
     </row>
     <row r="696">
@@ -14284,16 +14284,16 @@
         <v>22</v>
       </c>
       <c r="C696">
-        <v>11.7</v>
+        <v>11.06</v>
       </c>
       <c r="D696">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="E696">
-        <v>30.46</v>
+        <v>31.49</v>
       </c>
       <c r="F696">
-        <v>237.06</v>
+        <v>247.83</v>
       </c>
     </row>
     <row r="697">
@@ -14304,16 +14304,16 @@
         <v>23</v>
       </c>
       <c r="C697">
-        <v>11.4</v>
+        <v>10.58</v>
       </c>
       <c r="D697">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E697">
-        <v>31.77</v>
+        <v>27.28</v>
       </c>
       <c r="F697">
-        <v>231.44</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="698">
@@ -14324,16 +14324,16 @@
         <v>0</v>
       </c>
       <c r="C698">
-        <v>11.14</v>
+        <v>10.23</v>
       </c>
       <c r="D698">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E698">
-        <v>28.52</v>
+        <v>26.61</v>
       </c>
       <c r="F698">
-        <v>223.98</v>
+        <v>246.9</v>
       </c>
     </row>
     <row r="699">
@@ -14344,16 +14344,16 @@
         <v>1</v>
       </c>
       <c r="C699">
-        <v>10.94</v>
+        <v>9.35</v>
       </c>
       <c r="D699">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="E699">
-        <v>27.75</v>
+        <v>27.56</v>
       </c>
       <c r="F699">
-        <v>225.53</v>
+        <v>250.14</v>
       </c>
     </row>
     <row r="700">
@@ -14364,16 +14364,16 @@
         <v>2</v>
       </c>
       <c r="C700">
-        <v>10.65</v>
+        <v>8.57</v>
       </c>
       <c r="D700">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="E700">
-        <v>26.34</v>
+        <v>26.73</v>
       </c>
       <c r="F700">
-        <v>248.34</v>
+        <v>244.47</v>
       </c>
     </row>
     <row r="701">
@@ -14384,16 +14384,16 @@
         <v>3</v>
       </c>
       <c r="C701">
-        <v>9.9</v>
+        <v>8.15</v>
       </c>
       <c r="D701">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E701">
-        <v>26.79</v>
+        <v>26.12</v>
       </c>
       <c r="F701">
-        <v>228.81</v>
+        <v>240.26</v>
       </c>
     </row>
     <row r="702">
@@ -14404,16 +14404,16 @@
         <v>4</v>
       </c>
       <c r="C702">
-        <v>9.130000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="D702">
         <v>0</v>
       </c>
       <c r="E702">
-        <v>32.33</v>
+        <v>21.53</v>
       </c>
       <c r="F702">
-        <v>251.16</v>
+        <v>231.79</v>
       </c>
     </row>
     <row r="703">
@@ -14424,16 +14424,16 @@
         <v>5</v>
       </c>
       <c r="C703">
-        <v>7.92</v>
+        <v>7.47</v>
       </c>
       <c r="D703">
         <v>0</v>
       </c>
       <c r="E703">
-        <v>30.22</v>
+        <v>29.87</v>
       </c>
       <c r="F703">
-        <v>257.62</v>
+        <v>254.62</v>
       </c>
     </row>
     <row r="704">
@@ -14444,16 +14444,16 @@
         <v>6</v>
       </c>
       <c r="C704">
-        <v>7.04</v>
+        <v>6.42</v>
       </c>
       <c r="D704">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E704">
-        <v>28.2</v>
+        <v>25.62</v>
       </c>
       <c r="F704">
-        <v>255.96</v>
+        <v>252.84</v>
       </c>
     </row>
     <row r="705">
@@ -14464,16 +14464,16 @@
         <v>7</v>
       </c>
       <c r="C705">
-        <v>6.17</v>
+        <v>5.5</v>
       </c>
       <c r="D705">
         <v>0</v>
       </c>
       <c r="E705">
-        <v>24.25</v>
+        <v>23.26</v>
       </c>
       <c r="F705">
-        <v>251.83</v>
+        <v>248.2</v>
       </c>
     </row>
     <row r="706">
@@ -14484,16 +14484,16 @@
         <v>8</v>
       </c>
       <c r="C706">
-        <v>6.01</v>
+        <v>5.22</v>
       </c>
       <c r="D706">
         <v>0</v>
       </c>
       <c r="E706">
-        <v>22.22</v>
+        <v>22.38</v>
       </c>
       <c r="F706">
-        <v>243.02</v>
+        <v>244.26</v>
       </c>
     </row>
     <row r="707">
@@ -14504,16 +14504,16 @@
         <v>9</v>
       </c>
       <c r="C707">
-        <v>7.22</v>
+        <v>6.06</v>
       </c>
       <c r="D707">
         <v>0</v>
       </c>
       <c r="E707">
-        <v>25.28</v>
+        <v>24.16</v>
       </c>
       <c r="F707">
-        <v>243.8</v>
+        <v>245.34</v>
       </c>
     </row>
     <row r="708">
@@ -14524,16 +14524,16 @@
         <v>10</v>
       </c>
       <c r="C708">
-        <v>8.140000000000001</v>
+        <v>7.01</v>
       </c>
       <c r="D708">
         <v>0</v>
       </c>
       <c r="E708">
-        <v>26.89</v>
+        <v>24.82</v>
       </c>
       <c r="F708">
-        <v>242.06</v>
+        <v>246.04</v>
       </c>
     </row>
     <row r="709">
@@ -14544,16 +14544,16 @@
         <v>11</v>
       </c>
       <c r="C709">
-        <v>8.15</v>
+        <v>7.68</v>
       </c>
       <c r="D709">
         <v>0</v>
       </c>
       <c r="E709">
-        <v>27.91</v>
+        <v>25.12</v>
       </c>
       <c r="F709">
-        <v>239.8</v>
+        <v>242.7</v>
       </c>
     </row>
     <row r="710">
@@ -14564,16 +14564,16 @@
         <v>12</v>
       </c>
       <c r="C710">
-        <v>8.91</v>
+        <v>8.34</v>
       </c>
       <c r="D710">
         <v>0</v>
       </c>
       <c r="E710">
-        <v>29.65</v>
+        <v>25.99</v>
       </c>
       <c r="F710">
-        <v>240.95</v>
+        <v>239.17</v>
       </c>
     </row>
     <row r="711">
@@ -14584,16 +14584,16 @@
         <v>13</v>
       </c>
       <c r="C711">
-        <v>9.529999999999999</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="D711">
         <v>0</v>
       </c>
       <c r="E711">
-        <v>31.62</v>
+        <v>26.56</v>
       </c>
       <c r="F711">
-        <v>247.23</v>
+        <v>237.17</v>
       </c>
     </row>
     <row r="712">
@@ -14624,16 +14624,16 @@
         <v>15</v>
       </c>
       <c r="C713">
-        <v>10.81</v>
+        <v>10.07</v>
       </c>
       <c r="D713">
         <v>0</v>
       </c>
       <c r="E713">
-        <v>34.98</v>
+        <v>33.14</v>
       </c>
       <c r="F713">
-        <v>261.12</v>
+        <v>252.94</v>
       </c>
     </row>
     <row r="714">
@@ -14644,16 +14644,16 @@
         <v>16</v>
       </c>
       <c r="C714">
-        <v>11.1</v>
+        <v>10.51</v>
       </c>
       <c r="D714">
         <v>0.1</v>
       </c>
       <c r="E714">
-        <v>32.02</v>
+        <v>34.15</v>
       </c>
       <c r="F714">
-        <v>261.6</v>
+        <v>251.57</v>
       </c>
     </row>
     <row r="715">
@@ -14664,16 +14664,16 @@
         <v>17</v>
       </c>
       <c r="C715">
-        <v>11.31</v>
+        <v>10.53</v>
       </c>
       <c r="D715">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E715">
-        <v>31.21</v>
+        <v>35.46</v>
       </c>
       <c r="F715">
-        <v>262.71</v>
+        <v>254.69</v>
       </c>
     </row>
     <row r="716">
@@ -14684,16 +14684,16 @@
         <v>18</v>
       </c>
       <c r="C716">
-        <v>12.07</v>
+        <v>10.75</v>
       </c>
       <c r="D716">
         <v>0</v>
       </c>
       <c r="E716">
-        <v>33.32</v>
+        <v>34.1</v>
       </c>
       <c r="F716">
-        <v>263.8</v>
+        <v>259.05</v>
       </c>
     </row>
     <row r="717">
@@ -14704,16 +14704,16 @@
         <v>19</v>
       </c>
       <c r="C717">
-        <v>11.76</v>
+        <v>10.5</v>
       </c>
       <c r="D717">
         <v>0</v>
       </c>
       <c r="E717">
-        <v>32.33</v>
+        <v>33.56</v>
       </c>
       <c r="F717">
-        <v>262.32</v>
+        <v>260.74</v>
       </c>
     </row>
     <row r="718">
@@ -14724,16 +14724,16 @@
         <v>20</v>
       </c>
       <c r="C718">
-        <v>11.03</v>
+        <v>9.85</v>
       </c>
       <c r="D718">
         <v>0</v>
       </c>
       <c r="E718">
-        <v>30.24</v>
+        <v>31.01</v>
       </c>
       <c r="F718">
-        <v>261.1</v>
+        <v>260.65</v>
       </c>
     </row>
     <row r="719">
@@ -14744,16 +14744,16 @@
         <v>21</v>
       </c>
       <c r="C719">
-        <v>9.869999999999999</v>
+        <v>8.77</v>
       </c>
       <c r="D719">
         <v>0</v>
       </c>
       <c r="E719">
-        <v>27.47</v>
+        <v>27.61</v>
       </c>
       <c r="F719">
-        <v>259.43</v>
+        <v>257.96</v>
       </c>
     </row>
     <row r="720">
@@ -14764,16 +14764,16 @@
         <v>22</v>
       </c>
       <c r="C720">
-        <v>8.91</v>
+        <v>7.97</v>
       </c>
       <c r="D720">
         <v>0</v>
       </c>
       <c r="E720">
-        <v>24.8</v>
+        <v>24.45</v>
       </c>
       <c r="F720">
-        <v>256.57</v>
+        <v>256.37</v>
       </c>
     </row>
     <row r="721">
@@ -14784,16 +14784,16 @@
         <v>23</v>
       </c>
       <c r="C721">
-        <v>8.15</v>
+        <v>7.34</v>
       </c>
       <c r="D721">
         <v>0</v>
       </c>
       <c r="E721">
-        <v>20.78</v>
+        <v>21.31</v>
       </c>
       <c r="F721">
-        <v>255.96</v>
+        <v>254.32</v>
       </c>
     </row>
     <row r="722">
@@ -14804,16 +14804,16 @@
         <v>0</v>
       </c>
       <c r="C722">
-        <v>7.4</v>
+        <v>6.75</v>
       </c>
       <c r="D722">
         <v>0</v>
       </c>
       <c r="E722">
-        <v>17.38</v>
+        <v>19.14</v>
       </c>
       <c r="F722">
-        <v>256.83</v>
+        <v>253.61</v>
       </c>
     </row>
     <row r="723">
@@ -14824,16 +14824,16 @@
         <v>1</v>
       </c>
       <c r="C723">
-        <v>6.56</v>
+        <v>6.2</v>
       </c>
       <c r="D723">
         <v>0</v>
       </c>
       <c r="E723">
-        <v>15.39</v>
+        <v>18.69</v>
       </c>
       <c r="F723">
-        <v>259.22</v>
+        <v>254.36</v>
       </c>
     </row>
     <row r="724">
@@ -14844,16 +14844,16 @@
         <v>2</v>
       </c>
       <c r="C724">
-        <v>5.68</v>
+        <v>5.58</v>
       </c>
       <c r="D724">
         <v>0</v>
       </c>
       <c r="E724">
-        <v>14.26</v>
+        <v>17.81</v>
       </c>
       <c r="F724">
-        <v>259.82</v>
+        <v>255.96</v>
       </c>
     </row>
     <row r="725">
@@ -14864,16 +14864,16 @@
         <v>3</v>
       </c>
       <c r="C725">
-        <v>5.36</v>
+        <v>4.96</v>
       </c>
       <c r="D725">
         <v>0</v>
       </c>
       <c r="E725">
-        <v>12.73</v>
+        <v>16.6</v>
       </c>
       <c r="F725">
-        <v>261.87</v>
+        <v>257.47</v>
       </c>
     </row>
     <row r="726">
@@ -14884,16 +14884,16 @@
         <v>4</v>
       </c>
       <c r="C726">
-        <v>4.94</v>
+        <v>4.39</v>
       </c>
       <c r="D726">
         <v>0</v>
       </c>
       <c r="E726">
-        <v>13.63</v>
+        <v>15.04</v>
       </c>
       <c r="F726">
-        <v>257.8</v>
+        <v>258.96</v>
       </c>
     </row>
     <row r="727">
@@ -14904,16 +14904,16 @@
         <v>5</v>
       </c>
       <c r="C727">
-        <v>4.57</v>
+        <v>3.77</v>
       </c>
       <c r="D727">
         <v>0</v>
       </c>
       <c r="E727">
-        <v>13.91</v>
+        <v>13.8</v>
       </c>
       <c r="F727">
-        <v>259.56</v>
+        <v>262.5</v>
       </c>
     </row>
     <row r="728">
@@ -14924,16 +14924,16 @@
         <v>6</v>
       </c>
       <c r="C728">
-        <v>4.26</v>
+        <v>3.15</v>
       </c>
       <c r="D728">
         <v>0</v>
       </c>
       <c r="E728">
-        <v>13.01</v>
+        <v>11.53</v>
       </c>
       <c r="F728">
-        <v>255.58</v>
+        <v>268.21</v>
       </c>
     </row>
     <row r="729">
@@ -14944,16 +14944,16 @@
         <v>7</v>
       </c>
       <c r="C729">
-        <v>3.81</v>
+        <v>2.71</v>
       </c>
       <c r="D729">
         <v>0</v>
       </c>
       <c r="E729">
-        <v>12.07</v>
+        <v>9.73</v>
       </c>
       <c r="F729">
-        <v>252.65</v>
+        <v>267.88</v>
       </c>
     </row>
     <row r="730">
@@ -14964,16 +14964,16 @@
         <v>8</v>
       </c>
       <c r="C730">
-        <v>4.02</v>
+        <v>2.58</v>
       </c>
       <c r="D730">
         <v>0</v>
       </c>
       <c r="E730">
-        <v>11.01</v>
+        <v>7.59</v>
       </c>
       <c r="F730">
-        <v>258.69</v>
+        <v>264.56</v>
       </c>
     </row>
     <row r="731">
@@ -14984,16 +14984,16 @@
         <v>9</v>
       </c>
       <c r="C731">
-        <v>5.83</v>
+        <v>3.79</v>
       </c>
       <c r="D731">
         <v>0</v>
       </c>
       <c r="E731">
-        <v>10.74</v>
+        <v>4.9</v>
       </c>
       <c r="F731">
-        <v>256.43</v>
+        <v>252.9</v>
       </c>
     </row>
     <row r="732">
@@ -15004,16 +15004,16 @@
         <v>10</v>
       </c>
       <c r="C732">
-        <v>8.42</v>
+        <v>6.65</v>
       </c>
       <c r="D732">
         <v>0</v>
       </c>
       <c r="E732">
-        <v>11.9</v>
+        <v>4.69</v>
       </c>
       <c r="F732">
-        <v>273.47</v>
+        <v>265.6</v>
       </c>
     </row>
     <row r="733">
@@ -15024,16 +15024,16 @@
         <v>11</v>
       </c>
       <c r="C733">
-        <v>10.98</v>
+        <v>9.44</v>
       </c>
       <c r="D733">
         <v>0</v>
       </c>
       <c r="E733">
-        <v>14.35</v>
+        <v>6.03</v>
       </c>
       <c r="F733">
-        <v>287.53</v>
+        <v>287.35</v>
       </c>
     </row>
     <row r="734">
@@ -15044,16 +15044,16 @@
         <v>12</v>
       </c>
       <c r="C734">
-        <v>12.81</v>
+        <v>11.53</v>
       </c>
       <c r="D734">
         <v>0</v>
       </c>
       <c r="E734">
-        <v>17.19</v>
+        <v>6.99</v>
       </c>
       <c r="F734">
-        <v>289.57</v>
+        <v>281.89</v>
       </c>
     </row>
     <row r="735">
@@ -15064,16 +15064,16 @@
         <v>13</v>
       </c>
       <c r="C735">
-        <v>13.93</v>
+        <v>12.93</v>
       </c>
       <c r="D735">
         <v>0</v>
       </c>
       <c r="E735">
-        <v>18.72</v>
+        <v>7.97</v>
       </c>
       <c r="F735">
-        <v>292.62</v>
+        <v>288.43</v>
       </c>
     </row>
     <row r="736">
@@ -15104,16 +15104,16 @@
         <v>15</v>
       </c>
       <c r="C737">
-        <v>15.67</v>
+        <v>15.63</v>
       </c>
       <c r="D737">
         <v>0</v>
       </c>
       <c r="E737">
-        <v>8.67</v>
+        <v>15.27</v>
       </c>
       <c r="F737">
-        <v>274.76</v>
+        <v>315</v>
       </c>
     </row>
     <row r="738">
@@ -15124,16 +15124,16 @@
         <v>16</v>
       </c>
       <c r="C738">
-        <v>16.1</v>
+        <v>16.32</v>
       </c>
       <c r="D738">
         <v>0</v>
       </c>
       <c r="E738">
-        <v>9.83</v>
+        <v>13.55</v>
       </c>
       <c r="F738">
-        <v>293.75</v>
+        <v>320.39</v>
       </c>
     </row>
     <row r="739">
@@ -15144,16 +15144,16 @@
         <v>17</v>
       </c>
       <c r="C739">
-        <v>16.65</v>
+        <v>16.78</v>
       </c>
       <c r="D739">
         <v>0</v>
       </c>
       <c r="E739">
-        <v>10.51</v>
+        <v>12.1</v>
       </c>
       <c r="F739">
-        <v>308.05</v>
+        <v>323.47</v>
       </c>
     </row>
     <row r="740">
@@ -15164,16 +15164,16 @@
         <v>18</v>
       </c>
       <c r="C740">
-        <v>16.89</v>
+        <v>17.12</v>
       </c>
       <c r="D740">
         <v>0</v>
       </c>
       <c r="E740">
-        <v>11.72</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F740">
-        <v>317.49</v>
+        <v>319.64</v>
       </c>
     </row>
     <row r="741">
@@ -15184,16 +15184,16 @@
         <v>19</v>
       </c>
       <c r="C741">
-        <v>16.8</v>
+        <v>17.16</v>
       </c>
       <c r="D741">
         <v>0</v>
       </c>
       <c r="E741">
-        <v>10.74</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="F741">
-        <v>320.44</v>
+        <v>321.71</v>
       </c>
     </row>
     <row r="742">
@@ -15204,16 +15204,16 @@
         <v>20</v>
       </c>
       <c r="C742">
-        <v>16.41</v>
+        <v>16.83</v>
       </c>
       <c r="D742">
         <v>0</v>
       </c>
       <c r="E742">
-        <v>10.2</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F742">
-        <v>317.86</v>
+        <v>335.56</v>
       </c>
     </row>
     <row r="743">
@@ -15224,16 +15224,16 @@
         <v>21</v>
       </c>
       <c r="C743">
-        <v>15.42</v>
+        <v>15.75</v>
       </c>
       <c r="D743">
         <v>0</v>
       </c>
       <c r="E743">
-        <v>8.23</v>
+        <v>7.59</v>
       </c>
       <c r="F743">
-        <v>336.8</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="744">
@@ -15244,16 +15244,16 @@
         <v>22</v>
       </c>
       <c r="C744">
-        <v>13.84</v>
+        <v>14.35</v>
       </c>
       <c r="D744">
         <v>0</v>
       </c>
       <c r="E744">
-        <v>6.84</v>
+        <v>6.61</v>
       </c>
       <c r="F744">
-        <v>360</v>
+        <v>29.36</v>
       </c>
     </row>
     <row r="745">
@@ -15264,16 +15264,16 @@
         <v>23</v>
       </c>
       <c r="C745">
-        <v>12.34</v>
+        <v>13.09</v>
       </c>
       <c r="D745">
         <v>0</v>
       </c>
       <c r="E745">
-        <v>6.29</v>
+        <v>6.41</v>
       </c>
       <c r="F745">
-        <v>23.63</v>
+        <v>38.16</v>
       </c>
     </row>
     <row r="746">
@@ -15284,16 +15284,16 @@
         <v>0</v>
       </c>
       <c r="C746">
-        <v>11.27</v>
+        <v>11.95</v>
       </c>
       <c r="D746">
         <v>0</v>
       </c>
       <c r="E746">
-        <v>6.12</v>
+        <v>6.88</v>
       </c>
       <c r="F746">
-        <v>28.07</v>
+        <v>47.12</v>
       </c>
     </row>
     <row r="747">
@@ -15304,16 +15304,16 @@
         <v>1</v>
       </c>
       <c r="C747">
-        <v>9.960000000000001</v>
+        <v>10.24</v>
       </c>
       <c r="D747">
         <v>0</v>
       </c>
       <c r="E747">
-        <v>7.13</v>
+        <v>8.94</v>
       </c>
       <c r="F747">
-        <v>45</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="748">
@@ -15324,16 +15324,16 @@
         <v>2</v>
       </c>
       <c r="C748">
-        <v>8.960000000000001</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="D748">
         <v>0</v>
       </c>
       <c r="E748">
-        <v>8.210000000000001</v>
+        <v>9.18</v>
       </c>
       <c r="F748">
-        <v>52.13</v>
+        <v>48.18</v>
       </c>
     </row>
     <row r="749">
@@ -15344,13 +15344,13 @@
         <v>3</v>
       </c>
       <c r="C749">
-        <v>8.67</v>
+        <v>8.43</v>
       </c>
       <c r="D749">
         <v>0</v>
       </c>
       <c r="E749">
-        <v>10.18</v>
+        <v>8.65</v>
       </c>
       <c r="F749">
         <v>45</v>
@@ -15364,16 +15364,16 @@
         <v>4</v>
       </c>
       <c r="C750">
-        <v>8.25</v>
+        <v>7.64</v>
       </c>
       <c r="D750">
         <v>0</v>
       </c>
       <c r="E750">
-        <v>10.44</v>
+        <v>9</v>
       </c>
       <c r="F750">
-        <v>46.4</v>
+        <v>36.87</v>
       </c>
     </row>
     <row r="751">
@@ -15384,16 +15384,16 @@
         <v>5</v>
       </c>
       <c r="C751">
-        <v>7.79</v>
+        <v>7.06</v>
       </c>
       <c r="D751">
         <v>0</v>
       </c>
       <c r="E751">
-        <v>9.18</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F751">
-        <v>48.18</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="752">
@@ -15404,16 +15404,16 @@
         <v>6</v>
       </c>
       <c r="C752">
-        <v>7.39</v>
+        <v>6.63</v>
       </c>
       <c r="D752">
         <v>0</v>
       </c>
       <c r="E752">
-        <v>8.4</v>
+        <v>9.69</v>
       </c>
       <c r="F752">
-        <v>46.74</v>
+        <v>31.33</v>
       </c>
     </row>
     <row r="753">
@@ -15424,16 +15424,16 @@
         <v>7</v>
       </c>
       <c r="C753">
-        <v>6.85</v>
+        <v>6.23</v>
       </c>
       <c r="D753">
         <v>0</v>
       </c>
       <c r="E753">
-        <v>8.4</v>
+        <v>9.69</v>
       </c>
       <c r="F753">
-        <v>46.74</v>
+        <v>31.33</v>
       </c>
     </row>
     <row r="754">
@@ -15444,16 +15444,16 @@
         <v>8</v>
       </c>
       <c r="C754">
-        <v>6.88</v>
+        <v>6.54</v>
       </c>
       <c r="D754">
         <v>0</v>
       </c>
       <c r="E754">
-        <v>8.15</v>
+        <v>10.01</v>
       </c>
       <c r="F754">
-        <v>45</v>
+        <v>37.69</v>
       </c>
     </row>
     <row r="755">
@@ -15464,16 +15464,16 @@
         <v>9</v>
       </c>
       <c r="C755">
-        <v>8.31</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="D755">
         <v>0</v>
       </c>
       <c r="E755">
-        <v>9</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="F755">
-        <v>53.13</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="756">
@@ -15484,16 +15484,16 @@
         <v>10</v>
       </c>
       <c r="C756">
-        <v>10.76</v>
+        <v>11.23</v>
       </c>
       <c r="D756">
         <v>0</v>
       </c>
       <c r="E756">
-        <v>7.75</v>
+        <v>7.7</v>
       </c>
       <c r="F756">
-        <v>68.2</v>
+        <v>52.59</v>
       </c>
     </row>
     <row r="757">
@@ -15504,16 +15504,16 @@
         <v>11</v>
       </c>
       <c r="C757">
-        <v>13.2</v>
+        <v>14.01</v>
       </c>
       <c r="D757">
         <v>0</v>
       </c>
       <c r="E757">
-        <v>6.12</v>
+        <v>6.83</v>
       </c>
       <c r="F757">
-        <v>90</v>
+        <v>71.56999999999999</v>
       </c>
     </row>
     <row r="758">
@@ -15524,16 +15524,16 @@
         <v>12</v>
       </c>
       <c r="C758">
-        <v>15.14</v>
+        <v>16.04</v>
       </c>
       <c r="D758">
         <v>0</v>
       </c>
       <c r="E758">
-        <v>3.67</v>
+        <v>3.55</v>
       </c>
       <c r="F758">
-        <v>101.31</v>
+        <v>113.96</v>
       </c>
     </row>
     <row r="759">
@@ -15544,16 +15544,16 @@
         <v>13</v>
       </c>
       <c r="C759">
-        <v>16.73</v>
+        <v>17.32</v>
       </c>
       <c r="D759">
         <v>0</v>
       </c>
       <c r="E759">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="F759">
-        <v>120.96</v>
+        <v>126.87</v>
       </c>
     </row>
     <row r="760">
@@ -15584,16 +15584,16 @@
         <v>15</v>
       </c>
       <c r="C761">
-        <v>19.11</v>
+        <v>19.31</v>
       </c>
       <c r="D761">
         <v>0</v>
       </c>
       <c r="E761">
-        <v>3.76</v>
+        <v>2.88</v>
       </c>
       <c r="F761">
-        <v>163.3</v>
+        <v>180</v>
       </c>
     </row>
     <row r="762">
@@ -15604,7 +15604,7 @@
         <v>16</v>
       </c>
       <c r="C762">
-        <v>19.83</v>
+        <v>20.27</v>
       </c>
       <c r="D762">
         <v>0</v>
@@ -15624,16 +15624,16 @@
         <v>17</v>
       </c>
       <c r="C763">
-        <v>20.21</v>
+        <v>20.87</v>
       </c>
       <c r="D763">
         <v>0</v>
       </c>
       <c r="E763">
-        <v>1.48</v>
+        <v>2.16</v>
       </c>
       <c r="F763">
-        <v>194.04</v>
+        <v>180</v>
       </c>
     </row>
     <row r="764">
@@ -15644,16 +15644,16 @@
         <v>18</v>
       </c>
       <c r="C764">
-        <v>20.4</v>
+        <v>21.16</v>
       </c>
       <c r="D764">
         <v>0</v>
       </c>
       <c r="E764">
-        <v>0.72</v>
+        <v>1.08</v>
       </c>
       <c r="F764">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="765">
@@ -15664,16 +15664,16 @@
         <v>19</v>
       </c>
       <c r="C765">
-        <v>20.47</v>
+        <v>21.11</v>
       </c>
       <c r="D765">
         <v>0</v>
       </c>
       <c r="E765">
-        <v>2.9</v>
+        <v>0.36</v>
       </c>
       <c r="F765">
-        <v>82.87</v>
+        <v>180</v>
       </c>
     </row>
     <row r="766">
@@ -15684,16 +15684,16 @@
         <v>20</v>
       </c>
       <c r="C766">
-        <v>20.15</v>
+        <v>20.71</v>
       </c>
       <c r="D766">
         <v>0</v>
       </c>
       <c r="E766">
-        <v>4.55</v>
+        <v>1.48</v>
       </c>
       <c r="F766">
-        <v>71.56999999999999</v>
+        <v>75.95999999999999</v>
       </c>
     </row>
     <row r="767">
@@ -15704,16 +15704,16 @@
         <v>21</v>
       </c>
       <c r="C767">
-        <v>19.51</v>
+        <v>20.02</v>
       </c>
       <c r="D767">
         <v>0</v>
       </c>
       <c r="E767">
-        <v>3.22</v>
+        <v>2.04</v>
       </c>
       <c r="F767">
-        <v>63.43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="768">
@@ -15724,16 +15724,16 @@
         <v>22</v>
       </c>
       <c r="C768">
-        <v>18.82</v>
+        <v>19.49</v>
       </c>
       <c r="D768">
         <v>0</v>
       </c>
       <c r="E768">
-        <v>3.83</v>
+        <v>3.32</v>
       </c>
       <c r="F768">
-        <v>41.19</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="769">
@@ -15744,16 +15744,16 @@
         <v>23</v>
       </c>
       <c r="C769">
-        <v>18.06</v>
+        <v>18.64</v>
       </c>
       <c r="D769">
         <v>0</v>
       </c>
       <c r="E769">
-        <v>5.32</v>
+        <v>4.39</v>
       </c>
       <c r="F769">
-        <v>28.3</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="770">
@@ -15764,16 +15764,16 @@
         <v>0</v>
       </c>
       <c r="C770">
-        <v>17.05</v>
+        <v>17.49</v>
       </c>
       <c r="D770">
         <v>0</v>
       </c>
       <c r="E770">
-        <v>7.24</v>
+        <v>6.49</v>
       </c>
       <c r="F770">
-        <v>26.57</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="771">
@@ -15784,16 +15784,16 @@
         <v>1</v>
       </c>
       <c r="C771">
-        <v>14.83</v>
+        <v>15.26</v>
       </c>
       <c r="D771">
         <v>0</v>
       </c>
       <c r="E771">
-        <v>14.69</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="F771">
-        <v>36.03</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="772">
@@ -15804,16 +15804,16 @@
         <v>2</v>
       </c>
       <c r="C772">
-        <v>12.34</v>
+        <v>13.07</v>
       </c>
       <c r="D772">
         <v>0</v>
       </c>
       <c r="E772">
-        <v>17.82</v>
+        <v>18.34</v>
       </c>
       <c r="F772">
-        <v>45</v>
+        <v>43.41</v>
       </c>
     </row>
     <row r="773">
@@ -15824,16 +15824,16 @@
         <v>3</v>
       </c>
       <c r="C773">
-        <v>11.79</v>
+        <v>11.78</v>
       </c>
       <c r="D773">
         <v>0</v>
       </c>
       <c r="E773">
-        <v>14.53</v>
+        <v>18.9</v>
       </c>
       <c r="F773">
-        <v>48.01</v>
+        <v>49.64</v>
       </c>
     </row>
     <row r="774">
@@ -15844,16 +15844,16 @@
         <v>4</v>
       </c>
       <c r="C774">
-        <v>11.08</v>
+        <v>10.97</v>
       </c>
       <c r="D774">
         <v>0</v>
       </c>
       <c r="E774">
-        <v>15.27</v>
+        <v>18.58</v>
       </c>
       <c r="F774">
-        <v>45</v>
+        <v>45.78</v>
       </c>
     </row>
     <row r="775">
@@ -15864,16 +15864,16 @@
         <v>5</v>
       </c>
       <c r="C775">
-        <v>10.41</v>
+        <v>10.16</v>
       </c>
       <c r="D775">
         <v>0</v>
       </c>
       <c r="E775">
-        <v>16.09</v>
+        <v>17.34</v>
       </c>
       <c r="F775">
-        <v>49.54</v>
+        <v>48.37</v>
       </c>
     </row>
     <row r="776">
@@ -15884,16 +15884,16 @@
         <v>6</v>
       </c>
       <c r="C776">
-        <v>9.81</v>
+        <v>9.6</v>
       </c>
       <c r="D776">
         <v>0</v>
       </c>
       <c r="E776">
-        <v>15.63</v>
+        <v>16.78</v>
       </c>
       <c r="F776">
-        <v>51.55</v>
+        <v>54.61</v>
       </c>
     </row>
     <row r="777">
@@ -15904,16 +15904,16 @@
         <v>7</v>
       </c>
       <c r="C777">
-        <v>9.32</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="D777">
         <v>0</v>
       </c>
       <c r="E777">
-        <v>15.41</v>
+        <v>15.28</v>
       </c>
       <c r="F777">
-        <v>52.59</v>
+        <v>55.56</v>
       </c>
     </row>
     <row r="778">
@@ -15924,16 +15924,16 @@
         <v>8</v>
       </c>
       <c r="C778">
-        <v>9.380000000000001</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="D778">
         <v>0</v>
       </c>
       <c r="E778">
-        <v>14.9</v>
+        <v>13.68</v>
       </c>
       <c r="F778">
-        <v>52.85</v>
+        <v>54.64</v>
       </c>
     </row>
     <row r="779">
@@ -15944,16 +15944,16 @@
         <v>9</v>
       </c>
       <c r="C779">
-        <v>10.73</v>
+        <v>10.53</v>
       </c>
       <c r="D779">
         <v>0</v>
       </c>
       <c r="E779">
-        <v>14.78</v>
+        <v>12.1</v>
       </c>
       <c r="F779">
-        <v>55.92</v>
+        <v>53.47</v>
       </c>
     </row>
     <row r="780">
@@ -15964,16 +15964,16 @@
         <v>10</v>
       </c>
       <c r="C780">
-        <v>13.1</v>
+        <v>12.97</v>
       </c>
       <c r="D780">
         <v>0</v>
       </c>
       <c r="E780">
-        <v>11.98</v>
+        <v>10.99</v>
       </c>
       <c r="F780">
-        <v>57.26</v>
+        <v>58.39</v>
       </c>
     </row>
     <row r="781">
@@ -15984,16 +15984,16 @@
         <v>11</v>
       </c>
       <c r="C781">
-        <v>15.75</v>
+        <v>15.63</v>
       </c>
       <c r="D781">
         <v>0</v>
       </c>
       <c r="E781">
-        <v>9.98</v>
+        <v>7.86</v>
       </c>
       <c r="F781">
-        <v>64.36</v>
+        <v>74.05</v>
       </c>
     </row>
     <row r="782">
@@ -16004,16 +16004,16 @@
         <v>12</v>
       </c>
       <c r="C782">
-        <v>18.12</v>
+        <v>17.98</v>
       </c>
       <c r="D782">
         <v>0</v>
       </c>
       <c r="E782">
-        <v>7.17</v>
+        <v>5.76</v>
       </c>
       <c r="F782">
-        <v>72.47</v>
+        <v>90</v>
       </c>
     </row>
     <row r="783">
@@ -16024,16 +16024,16 @@
         <v>13</v>
       </c>
       <c r="C783">
-        <v>19.81</v>
+        <v>19.9</v>
       </c>
       <c r="D783">
         <v>0</v>
       </c>
       <c r="E783">
-        <v>4.02</v>
+        <v>4.38</v>
       </c>
       <c r="F783">
-        <v>79.7</v>
+        <v>99.45999999999999</v>
       </c>
     </row>
     <row r="784">
@@ -16064,16 +16064,16 @@
         <v>15</v>
       </c>
       <c r="C785">
-        <v>22.09</v>
+        <v>22.13</v>
       </c>
       <c r="D785">
         <v>0</v>
       </c>
       <c r="E785">
-        <v>3.76</v>
+        <v>1.08</v>
       </c>
       <c r="F785">
-        <v>106.7</v>
+        <v>90</v>
       </c>
     </row>
     <row r="786">
@@ -16084,16 +16084,16 @@
         <v>16</v>
       </c>
       <c r="C786">
-        <v>22.79</v>
+        <v>22.92</v>
       </c>
       <c r="D786">
         <v>0</v>
       </c>
       <c r="E786">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="F786">
-        <v>98.13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="787">
@@ -16104,16 +16104,16 @@
         <v>17</v>
       </c>
       <c r="C787">
-        <v>23.21</v>
+        <v>23.42</v>
       </c>
       <c r="D787">
         <v>0</v>
       </c>
       <c r="E787">
-        <v>2.28</v>
+        <v>2.41</v>
       </c>
       <c r="F787">
-        <v>71.56999999999999</v>
+        <v>63.43</v>
       </c>
     </row>
     <row r="788">
@@ -16124,16 +16124,16 @@
         <v>18</v>
       </c>
       <c r="C788">
-        <v>23.37</v>
+        <v>23.69</v>
       </c>
       <c r="D788">
         <v>0</v>
       </c>
       <c r="E788">
-        <v>4.02</v>
+        <v>3.6</v>
       </c>
       <c r="F788">
-        <v>63.43</v>
+        <v>53.13</v>
       </c>
     </row>
     <row r="789">
@@ -16144,16 +16144,16 @@
         <v>19</v>
       </c>
       <c r="C789">
-        <v>23.29</v>
+        <v>23.59</v>
       </c>
       <c r="D789">
         <v>0</v>
       </c>
       <c r="E789">
-        <v>4.69</v>
+        <v>5.62</v>
       </c>
       <c r="F789">
-        <v>57.53</v>
+        <v>50.19</v>
       </c>
     </row>
     <row r="790">
@@ -16164,16 +16164,16 @@
         <v>20</v>
       </c>
       <c r="C790">
-        <v>22.84</v>
+        <v>23.05</v>
       </c>
       <c r="D790">
         <v>0</v>
       </c>
       <c r="E790">
-        <v>5.86</v>
+        <v>6.64</v>
       </c>
       <c r="F790">
-        <v>47.49</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="791">
@@ -16184,16 +16184,16 @@
         <v>21</v>
       </c>
       <c r="C791">
-        <v>22</v>
+        <v>22.14</v>
       </c>
       <c r="D791">
         <v>0</v>
       </c>
       <c r="E791">
-        <v>4.39</v>
+        <v>4.33</v>
       </c>
       <c r="F791">
-        <v>55.01</v>
+        <v>48.37</v>
       </c>
     </row>
     <row r="792">
@@ -16204,16 +16204,16 @@
         <v>22</v>
       </c>
       <c r="C792">
-        <v>21.23</v>
+        <v>21.31</v>
       </c>
       <c r="D792">
         <v>0</v>
       </c>
       <c r="E792">
-        <v>4.07</v>
+        <v>4.1</v>
       </c>
       <c r="F792">
-        <v>45</v>
+        <v>37.87</v>
       </c>
     </row>
     <row r="793">
@@ -16224,16 +16224,16 @@
         <v>23</v>
       </c>
       <c r="C793">
-        <v>20.59</v>
+        <v>20.47</v>
       </c>
       <c r="D793">
         <v>0</v>
       </c>
       <c r="E793">
-        <v>6.44</v>
+        <v>5.5</v>
       </c>
       <c r="F793">
-        <v>26.57</v>
+        <v>31.61</v>
       </c>
     </row>
     <row r="794">
@@ -16244,16 +16244,16 @@
         <v>0</v>
       </c>
       <c r="C794">
-        <v>18.66</v>
+        <v>19.22</v>
       </c>
       <c r="D794">
         <v>0</v>
       </c>
       <c r="E794">
-        <v>11.61</v>
+        <v>8.59</v>
       </c>
       <c r="F794">
-        <v>29.74</v>
+        <v>33.02</v>
       </c>
     </row>
     <row r="795">
@@ -16264,13 +16264,13 @@
         <v>1</v>
       </c>
       <c r="C795">
-        <v>15.27</v>
+        <v>15.5</v>
       </c>
       <c r="D795">
         <v>0</v>
       </c>
       <c r="E795">
-        <v>19.86</v>
+        <v>18.33</v>
       </c>
       <c r="F795">
         <v>45</v>
@@ -16284,16 +16284,16 @@
         <v>2</v>
       </c>
       <c r="C796">
-        <v>14</v>
+        <v>13.82</v>
       </c>
       <c r="D796">
         <v>0</v>
       </c>
       <c r="E796">
-        <v>19.37</v>
+        <v>18.6</v>
       </c>
       <c r="F796">
-        <v>48.01</v>
+        <v>42.65</v>
       </c>
     </row>
     <row r="797">
@@ -16304,16 +16304,16 @@
         <v>3</v>
       </c>
       <c r="C797">
-        <v>13.55</v>
+        <v>12.75</v>
       </c>
       <c r="D797">
         <v>0</v>
       </c>
       <c r="E797">
-        <v>14.8</v>
+        <v>18.6</v>
       </c>
       <c r="F797">
-        <v>48.95</v>
+        <v>47.35</v>
       </c>
     </row>
     <row r="798">
@@ -16324,16 +16324,16 @@
         <v>4</v>
       </c>
       <c r="C798">
-        <v>12.83</v>
+        <v>11.84</v>
       </c>
       <c r="D798">
         <v>0</v>
       </c>
       <c r="E798">
-        <v>15.31</v>
+        <v>16.64</v>
       </c>
       <c r="F798">
-        <v>41.19</v>
+        <v>51.15</v>
       </c>
     </row>
     <row r="799">
@@ -16344,16 +16344,16 @@
         <v>5</v>
       </c>
       <c r="C799">
-        <v>12.21</v>
+        <v>10.9</v>
       </c>
       <c r="D799">
         <v>0</v>
       </c>
       <c r="E799">
-        <v>15.55</v>
+        <v>14.06</v>
       </c>
       <c r="F799">
-        <v>47.82</v>
+        <v>50.19</v>
       </c>
     </row>
     <row r="800">
@@ -16364,16 +16364,16 @@
         <v>6</v>
       </c>
       <c r="C800">
-        <v>11.58</v>
+        <v>10.36</v>
       </c>
       <c r="D800">
         <v>0</v>
       </c>
       <c r="E800">
-        <v>14.51</v>
+        <v>13.18</v>
       </c>
       <c r="F800">
-        <v>46.01</v>
+        <v>55.01</v>
       </c>
     </row>
     <row r="801">
@@ -16384,16 +16384,16 @@
         <v>7</v>
       </c>
       <c r="C801">
-        <v>10.83</v>
+        <v>10.01</v>
       </c>
       <c r="D801">
         <v>0</v>
       </c>
       <c r="E801">
-        <v>14.02</v>
+        <v>12.1</v>
       </c>
       <c r="F801">
-        <v>48.12</v>
+        <v>59.62</v>
       </c>
     </row>
     <row r="802">
@@ -16404,16 +16404,16 @@
         <v>8</v>
       </c>
       <c r="C802">
-        <v>10.67</v>
+        <v>10.4</v>
       </c>
       <c r="D802">
         <v>0</v>
       </c>
       <c r="E802">
-        <v>12.82</v>
+        <v>10.95</v>
       </c>
       <c r="F802">
-        <v>51.84</v>
+        <v>62.59</v>
       </c>
     </row>
     <row r="803">
@@ -16424,16 +16424,16 @@
         <v>9</v>
       </c>
       <c r="C803">
-        <v>12.23</v>
+        <v>11.96</v>
       </c>
       <c r="D803">
         <v>0</v>
       </c>
       <c r="E803">
-        <v>10.09</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="F803">
-        <v>55.18</v>
+        <v>62.35</v>
       </c>
     </row>
     <row r="804">
@@ -16444,16 +16444,16 @@
         <v>10</v>
       </c>
       <c r="C804">
-        <v>14.64</v>
+        <v>14.39</v>
       </c>
       <c r="D804">
         <v>0</v>
       </c>
       <c r="E804">
-        <v>8.529999999999999</v>
+        <v>5.15</v>
       </c>
       <c r="F804">
-        <v>62.35</v>
+        <v>77.91</v>
       </c>
     </row>
     <row r="805">
@@ -16464,16 +16464,16 @@
         <v>11</v>
       </c>
       <c r="C805">
-        <v>17.06</v>
+        <v>16.8</v>
       </c>
       <c r="D805">
         <v>0</v>
       </c>
       <c r="E805">
-        <v>5.59</v>
+        <v>4.69</v>
       </c>
       <c r="F805">
-        <v>75.06999999999999</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="806">
@@ -16484,16 +16484,16 @@
         <v>12</v>
       </c>
       <c r="C806">
-        <v>19.17</v>
+        <v>19.1</v>
       </c>
       <c r="D806">
         <v>0</v>
       </c>
       <c r="E806">
-        <v>4.74</v>
+        <v>4.68</v>
       </c>
       <c r="F806">
-        <v>81.25</v>
+        <v>112.62</v>
       </c>
     </row>
     <row r="807">
@@ -16504,16 +16504,16 @@
         <v>13</v>
       </c>
       <c r="C807">
-        <v>21.04</v>
+        <v>21.09</v>
       </c>
       <c r="D807">
         <v>0</v>
       </c>
       <c r="E807">
-        <v>3.62</v>
+        <v>3.89</v>
       </c>
       <c r="F807">
-        <v>95.70999999999999</v>
+        <v>146.31</v>
       </c>
     </row>
     <row r="808">
@@ -16544,16 +16544,16 @@
         <v>15</v>
       </c>
       <c r="C809">
-        <v>23.53</v>
+        <v>23.55</v>
       </c>
       <c r="D809">
         <v>0</v>
       </c>
       <c r="E809">
-        <v>3.1</v>
+        <v>1.44</v>
       </c>
       <c r="F809">
-        <v>144.46</v>
+        <v>270</v>
       </c>
     </row>
     <row r="810">
@@ -16564,16 +16564,16 @@
         <v>16</v>
       </c>
       <c r="C810">
-        <v>24.08</v>
+        <v>24.11</v>
       </c>
       <c r="D810">
         <v>0</v>
       </c>
       <c r="E810">
-        <v>0.72</v>
+        <v>2.74</v>
       </c>
       <c r="F810">
-        <v>270</v>
+        <v>336.8</v>
       </c>
     </row>
     <row r="811">
@@ -16584,16 +16584,16 @@
         <v>17</v>
       </c>
       <c r="C811">
-        <v>24.39</v>
+        <v>24.45</v>
       </c>
       <c r="D811">
         <v>0</v>
       </c>
       <c r="E811">
-        <v>2.6</v>
+        <v>5.35</v>
       </c>
       <c r="F811">
-        <v>303.69</v>
+        <v>340.35</v>
       </c>
     </row>
     <row r="812">
@@ -16604,16 +16604,16 @@
         <v>18</v>
       </c>
       <c r="C812">
-        <v>24.42</v>
+        <v>24.46</v>
       </c>
       <c r="D812">
         <v>0</v>
       </c>
       <c r="E812">
-        <v>4.02</v>
+        <v>6.83</v>
       </c>
       <c r="F812">
-        <v>296.57</v>
+        <v>341.57</v>
       </c>
     </row>
     <row r="813">
@@ -16624,16 +16624,16 @@
         <v>19</v>
       </c>
       <c r="C813">
-        <v>24.26</v>
+        <v>23.7</v>
       </c>
       <c r="D813">
         <v>0</v>
       </c>
       <c r="E813">
-        <v>4.35</v>
+        <v>6.62</v>
       </c>
       <c r="F813">
-        <v>294.44</v>
+        <v>337.62</v>
       </c>
     </row>
     <row r="814">
@@ -16644,16 +16644,16 @@
         <v>20</v>
       </c>
       <c r="C814">
-        <v>23.75</v>
+        <v>23.42</v>
       </c>
       <c r="D814">
         <v>0</v>
       </c>
       <c r="E814">
-        <v>4.83</v>
+        <v>5.35</v>
       </c>
       <c r="F814">
-        <v>296.57</v>
+        <v>340.35</v>
       </c>
     </row>
     <row r="815">
@@ -16664,16 +16664,16 @@
         <v>21</v>
       </c>
       <c r="C815">
-        <v>22.95</v>
+        <v>22.61</v>
       </c>
       <c r="D815">
         <v>0</v>
       </c>
       <c r="E815">
-        <v>2.9</v>
+        <v>2.16</v>
       </c>
       <c r="F815">
-        <v>277.13</v>
+        <v>360</v>
       </c>
     </row>
     <row r="816">
@@ -16684,16 +16684,16 @@
         <v>22</v>
       </c>
       <c r="C816">
-        <v>22.38</v>
+        <v>22.15</v>
       </c>
       <c r="D816">
         <v>0</v>
       </c>
       <c r="E816">
-        <v>2.1</v>
+        <v>2.81</v>
       </c>
       <c r="F816">
-        <v>300.96</v>
+        <v>39.81</v>
       </c>
     </row>
     <row r="817">
@@ -16704,16 +16704,496 @@
         <v>23</v>
       </c>
       <c r="C817">
-        <v>21.4</v>
+        <v>21.34</v>
       </c>
       <c r="D817">
         <v>0</v>
       </c>
       <c r="E817">
-        <v>5.05</v>
+        <v>5.32</v>
       </c>
       <c r="F817">
-        <v>4.09</v>
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B818">
+        <v>0</v>
+      </c>
+      <c r="C818">
+        <v>18.54</v>
+      </c>
+      <c r="D818">
+        <v>0</v>
+      </c>
+      <c r="E818">
+        <v>9.18</v>
+      </c>
+      <c r="F818">
+        <v>25.56</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B819">
+        <v>1</v>
+      </c>
+      <c r="C819">
+        <v>15.63</v>
+      </c>
+      <c r="D819">
+        <v>0</v>
+      </c>
+      <c r="E819">
+        <v>13.85</v>
+      </c>
+      <c r="F819">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B820">
+        <v>2</v>
+      </c>
+      <c r="C820">
+        <v>14.78</v>
+      </c>
+      <c r="D820">
+        <v>0</v>
+      </c>
+      <c r="E820">
+        <v>18.58</v>
+      </c>
+      <c r="F820">
+        <v>35.54</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B821">
+        <v>3</v>
+      </c>
+      <c r="C821">
+        <v>13.32</v>
+      </c>
+      <c r="D821">
+        <v>0</v>
+      </c>
+      <c r="E821">
+        <v>18.78</v>
+      </c>
+      <c r="F821">
+        <v>57.53</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B822">
+        <v>4</v>
+      </c>
+      <c r="C822">
+        <v>12.16</v>
+      </c>
+      <c r="D822">
+        <v>0</v>
+      </c>
+      <c r="E822">
+        <v>13.18</v>
+      </c>
+      <c r="F822">
+        <v>55.01</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B823">
+        <v>5</v>
+      </c>
+      <c r="C823">
+        <v>11.27</v>
+      </c>
+      <c r="D823">
+        <v>0</v>
+      </c>
+      <c r="E823">
+        <v>11.75</v>
+      </c>
+      <c r="F823">
+        <v>49.97</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B824">
+        <v>6</v>
+      </c>
+      <c r="C824">
+        <v>10.84</v>
+      </c>
+      <c r="D824">
+        <v>0</v>
+      </c>
+      <c r="E824">
+        <v>10.51</v>
+      </c>
+      <c r="F824">
+        <v>51.95</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B825">
+        <v>7</v>
+      </c>
+      <c r="C825">
+        <v>10.46</v>
+      </c>
+      <c r="D825">
+        <v>0</v>
+      </c>
+      <c r="E825">
+        <v>10</v>
+      </c>
+      <c r="F825">
+        <v>59.74</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B826">
+        <v>8</v>
+      </c>
+      <c r="C826">
+        <v>10.62</v>
+      </c>
+      <c r="D826">
+        <v>0</v>
+      </c>
+      <c r="E826">
+        <v>8.91</v>
+      </c>
+      <c r="F826">
+        <v>75.95999999999999</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B827">
+        <v>9</v>
+      </c>
+      <c r="C827">
+        <v>11.88</v>
+      </c>
+      <c r="D827">
+        <v>0</v>
+      </c>
+      <c r="E827">
+        <v>6.16</v>
+      </c>
+      <c r="F827">
+        <v>83.29000000000001</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B828">
+        <v>10</v>
+      </c>
+      <c r="C828">
+        <v>13.84</v>
+      </c>
+      <c r="D828">
+        <v>0</v>
+      </c>
+      <c r="E828">
+        <v>3.62</v>
+      </c>
+      <c r="F828">
+        <v>95.70999999999999</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B829">
+        <v>11</v>
+      </c>
+      <c r="C829">
+        <v>16.26</v>
+      </c>
+      <c r="D829">
+        <v>0</v>
+      </c>
+      <c r="E829">
+        <v>2.97</v>
+      </c>
+      <c r="F829">
+        <v>104.04</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B830">
+        <v>12</v>
+      </c>
+      <c r="C830">
+        <v>18.72</v>
+      </c>
+      <c r="D830">
+        <v>0</v>
+      </c>
+      <c r="E830">
+        <v>3.71</v>
+      </c>
+      <c r="F830">
+        <v>119.05</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B831">
+        <v>13</v>
+      </c>
+      <c r="C831">
+        <v>21.05</v>
+      </c>
+      <c r="D831">
+        <v>0</v>
+      </c>
+      <c r="E831">
+        <v>3.83</v>
+      </c>
+      <c r="F831">
+        <v>138.81</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B832">
+        <v>14</v>
+      </c>
+      <c r="C832">
+        <v>23.37</v>
+      </c>
+      <c r="D832">
+        <v>0</v>
+      </c>
+      <c r="E832">
+        <v>1.94</v>
+      </c>
+      <c r="F832">
+        <v>291.8</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B833">
+        <v>15</v>
+      </c>
+      <c r="C833">
+        <v>24.09</v>
+      </c>
+      <c r="D833">
+        <v>0</v>
+      </c>
+      <c r="E833">
+        <v>4.58</v>
+      </c>
+      <c r="F833">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B834">
+        <v>16</v>
+      </c>
+      <c r="C834">
+        <v>24.59</v>
+      </c>
+      <c r="D834">
+        <v>0</v>
+      </c>
+      <c r="E834">
+        <v>5.9</v>
+      </c>
+      <c r="F834">
+        <v>322.43</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B835">
+        <v>17</v>
+      </c>
+      <c r="C835">
+        <v>24.78</v>
+      </c>
+      <c r="D835">
+        <v>0</v>
+      </c>
+      <c r="E835">
+        <v>6.3</v>
+      </c>
+      <c r="F835">
+        <v>329.04</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B836">
+        <v>18</v>
+      </c>
+      <c r="C836">
+        <v>24.68</v>
+      </c>
+      <c r="D836">
+        <v>0</v>
+      </c>
+      <c r="E836">
+        <v>5.5</v>
+      </c>
+      <c r="F836">
+        <v>328.39</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B837">
+        <v>19</v>
+      </c>
+      <c r="C837">
+        <v>24.43</v>
+      </c>
+      <c r="D837">
+        <v>0</v>
+      </c>
+      <c r="E837">
+        <v>4.2</v>
+      </c>
+      <c r="F837">
+        <v>329.04</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B838">
+        <v>20</v>
+      </c>
+      <c r="C838">
+        <v>23.98</v>
+      </c>
+      <c r="D838">
+        <v>0</v>
+      </c>
+      <c r="E838">
+        <v>2.28</v>
+      </c>
+      <c r="F838">
+        <v>341.57</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B839">
+        <v>21</v>
+      </c>
+      <c r="C839">
+        <v>23.22</v>
+      </c>
+      <c r="D839">
+        <v>0</v>
+      </c>
+      <c r="E839">
+        <v>2.19</v>
+      </c>
+      <c r="F839">
+        <v>99.45999999999999</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B840">
+        <v>22</v>
+      </c>
+      <c r="C840">
+        <v>22.72</v>
+      </c>
+      <c r="D840">
+        <v>0</v>
+      </c>
+      <c r="E840">
+        <v>4.8</v>
+      </c>
+      <c r="F840">
+        <v>102.99</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="2">
+        <v>43585</v>
+      </c>
+      <c r="B841">
+        <v>23</v>
+      </c>
+      <c r="C841">
+        <v>21.45</v>
+      </c>
+      <c r="D841">
+        <v>0</v>
+      </c>
+      <c r="E841">
+        <v>6.92</v>
+      </c>
+      <c r="F841">
+        <v>62.1</v>
       </c>
     </row>
   </sheetData>
